--- a/biology/Botanique/Magnolia_silvioi/Magnolia_silvioi.xlsx
+++ b/biology/Botanique/Magnolia_silvioi/Magnolia_silvioi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia silvioi est une espèce d'arbres de la famille des Magnoliacées endémique de Colombie.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Colombie. Elle vit dans la forêt tropicale humide et est souvent associée avec des arbres des genres Pouteria, Gustavia, Euterpe et Wettinia. Elle pousse sur des sols calcaire[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Colombie. Elle vit dans la forêt tropicale humide et est souvent associée avec des arbres des genres Pouteria, Gustavia, Euterpe et Wettinia. Elle pousse sur des sols calcaire.
 </t>
         </is>
       </c>
